--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_21_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1065795.88266651</v>
+        <v>-1068344.539852529</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12561851.30939062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>70.51113862850775</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>171.0483567097106</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74.75769145492352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>37.68656955246523</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>31.86562382405676</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>23.79925355567413</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>26.29813691385327</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1072,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>47.41254713315928</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>64.92109060063579</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>282.2717811533781</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>82.82214511884987</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>18.99000948844335</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,13 +1348,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>31.26260713376574</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428217</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>71.79687029691256</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695582</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576149</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128558</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364137</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>38.05096575280812</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>147.0536681065479</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695582</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128558</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364137</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703163</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012214</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>45.17596778974983</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695582</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128558</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364137</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
-        <v>22.61263105777496</v>
+        <v>83.06560892427149</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012214</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695582</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128558</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364137</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060397</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012214</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018749</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2801,13 +2801,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695582</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128558</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364137</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428307</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012214</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820796918</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695582</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128558</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364137</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>164.2607468869785</v>
+        <v>164.2607468869756</v>
       </c>
       <c r="C34" t="n">
-        <v>151.675587803669</v>
+        <v>151.6755878036661</v>
       </c>
       <c r="D34" t="n">
-        <v>133.0442397232536</v>
+        <v>133.0442397232507</v>
       </c>
       <c r="E34" t="n">
-        <v>130.8627293516104</v>
+        <v>118.6723819134725</v>
       </c>
       <c r="F34" t="n">
-        <v>129.8498147279724</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>149.95290499731</v>
+        <v>149.9529049973072</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>124.7234795512623</v>
       </c>
       <c r="I34" t="n">
-        <v>65.69460302360673</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.80401341516287</v>
+        <v>50.80401341516043</v>
       </c>
       <c r="S34" t="n">
-        <v>165.4550527066858</v>
+        <v>165.4550527066831</v>
       </c>
       <c r="T34" t="n">
-        <v>201.8342170323295</v>
+        <v>201.8342170323266</v>
       </c>
       <c r="U34" t="n">
-        <v>187.6019554557844</v>
+        <v>270.6132410942824</v>
       </c>
       <c r="V34" t="n">
-        <v>236.5664100288692</v>
+        <v>236.5664100288663</v>
       </c>
       <c r="W34" t="n">
-        <v>270.9517650416322</v>
+        <v>270.9517650416293</v>
       </c>
       <c r="X34" t="n">
-        <v>210.1384220940784</v>
+        <v>210.1384220940755</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.013420057136</v>
+        <v>203.0134200571331</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352486</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,7 +3913,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
         <v>56.98118882652581</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>921.770455879627</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>552.8079389392153</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>552.8079389392151</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>481.5845665871871</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871871</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4343,37 +4343,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866152</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2862.546497866152</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2689.770379977556</v>
+        <v>1308.370295943749</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686085</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080139</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>2176.004930555062</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>2007.068747627156</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>1856.95210821482</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>1709.039014632427</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>1562.149067134517</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764913</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760402</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>3287.538579636984</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>3095.852695463811</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>3095.852695463811</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>3095.852695463811</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621294</v>
+        <v>3095.852695463811</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251688</v>
+        <v>2806.43552542685</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271515</v>
+        <v>2578.445974528832</v>
       </c>
       <c r="Y4" t="n">
-        <v>142.0249360836214</v>
+        <v>2357.653395385302</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1643.543434242328</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3293.418322796992</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3087.440575181215</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3087.440575181215</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2756.377687837644</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.60903256753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>2030.14327430645</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y5" t="n">
-        <v>2030.14327430645</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1879.403086337827</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1879.403086337827</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1879.403086337827</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1624.71859813194</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>652.2346852641123</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2332.706849548771</v>
+        <v>1685.375546116518</v>
       </c>
       <c r="C8" t="n">
-        <v>1963.744332608359</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D8" t="n">
-        <v>1605.478634001608</v>
+        <v>958.147330569356</v>
       </c>
       <c r="E8" t="n">
-        <v>1219.690381403364</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F8" t="n">
-        <v>808.7044766137567</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>393.6320264587532</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2719.306689612893</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2719.306689612893</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>2719.306689612893</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>708.3064969624544</v>
+        <v>699.5498076188339</v>
       </c>
       <c r="C10" t="n">
-        <v>708.3064969624544</v>
+        <v>530.6136246909271</v>
       </c>
       <c r="D10" t="n">
-        <v>708.3064969624544</v>
+        <v>380.4969852785913</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>232.5838916961982</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>85.69394419828782</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>1446.505797040963</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>1157.088627004002</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X10" t="n">
-        <v>929.0990761059845</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="Y10" t="n">
-        <v>708.3064969624544</v>
+        <v>881.1982724490737</v>
       </c>
     </row>
     <row r="11">
@@ -5030,37 +5030,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192412</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5118,19 +5118,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098238</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819169</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>261.8464821474265</v>
       </c>
       <c r="E13" t="n">
-        <v>516.3896878871881</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650336</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,7 +5200,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783594</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557278</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278209</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>408.9258559154852</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5434,13 +5434,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2191.586158026162</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1902.51093137036</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.826443164473</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1358.409273127513</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.419722229495</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6271430859675</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638195322</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111972</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611076034</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332407</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014795</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635595</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068019</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694712</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.774219330013</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.239661356898</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273863</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803922</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516108</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167367</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793916</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348519</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5625,7 +5625,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V18" t="n">
         <v>1781.463605996603</v>
@@ -5634,7 +5634,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y18" t="n">
         <v>1111.614450297915</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>721.7774158311366</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>552.8412329032298</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>402.724593490894</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.724593490894</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.724593490894</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.052681478295</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038325</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797708</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279794</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853352</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="S19" t="n">
-        <v>2341.482060890433</v>
+        <v>2264.108249235155</v>
       </c>
       <c r="T19" t="n">
-        <v>2341.482060890433</v>
+        <v>2044.506784258096</v>
       </c>
       <c r="U19" t="n">
-        <v>2052.406834234631</v>
+        <v>1755.431557602293</v>
       </c>
       <c r="V19" t="n">
-        <v>1797.722346028744</v>
+        <v>1500.747069396406</v>
       </c>
       <c r="W19" t="n">
-        <v>1508.305175991783</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>903.4258806613764</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111687</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107575</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332378</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014765</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355919</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291067988</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694682</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852228</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.774219330013</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.239661356898</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H21" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273863</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803922</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516108</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167367</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793916</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348519</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5862,7 +5862,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V21" t="n">
         <v>1781.463605996603</v>
@@ -5871,7 +5871,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y21" t="n">
         <v>1111.614450297915</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400609</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356192</v>
+        <v>344.917417812154</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232834</v>
+        <v>344.917417812154</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408904</v>
+        <v>344.917417812154</v>
       </c>
       <c r="F22" t="n">
-        <v>484.81129684298</v>
+        <v>344.917417812154</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.052681478295</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038324</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797709</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279794</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853352</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832652</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487556</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510497</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854696</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648809</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611848</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138307</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703006</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111993</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611076056</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332408</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014796</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.89852635595</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068019</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694713</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.774219330013</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.239661356898</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273863</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803922</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516108</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167367</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793916</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348519</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6099,7 +6099,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V24" t="n">
         <v>1781.463605996603</v>
@@ -6108,7 +6108,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y24" t="n">
         <v>1111.614450297915</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400605</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400714</v>
+        <v>344.9174178121541</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400714</v>
+        <v>344.9174178121541</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576783</v>
+        <v>344.9174178121541</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9405071576783</v>
+        <v>344.9174178121541</v>
       </c>
       <c r="G25" t="n">
-        <v>198.7444078725582</v>
+        <v>177.721318527034</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782947</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038322</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797707</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570811</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279794</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853352</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832652</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487556</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510497</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854695</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648808</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611848</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138304</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703003</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111687</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107575</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332378</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014765</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355919</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291067988</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694682</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852228</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.774219330013</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.239661356898</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273863</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803922</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516108</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167367</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793916</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348519</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6336,7 +6336,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V27" t="n">
         <v>1781.463605996603</v>
@@ -6345,7 +6345,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y27" t="n">
         <v>1111.614450297915</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188009</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>402.724593490894</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>402.724593490894</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>402.724593490894</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122183</v>
+        <v>402.724593490894</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478295</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038325</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797711</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.56011257081</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279794</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853351</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832652</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487556</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510497</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854695</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490406</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111687</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107575</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332378</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014765</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355919</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291067988</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694682</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852228</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.774219330013</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.239661356898</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H30" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273863</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803922</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516108</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167367</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793916</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348519</v>
       </c>
       <c r="O30" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6573,7 +6573,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V30" t="n">
         <v>1781.463605996603</v>
@@ -6582,7 +6582,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y30" t="n">
         <v>1111.614450297915</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400727</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121658</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121658</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121658</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121658</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270457</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.052681478295</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038324</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797748</v>
+        <v>826.1405381797709</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910804</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.56011257081</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279794</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853351</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832652</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703124</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638195475</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111984</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611076047</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332407</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014795</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355949</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068018</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694712</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3991132778468</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9460839967198</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>620.0116743354686</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.774219330013</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.239661356898</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H33" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273863</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803922</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516108</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167367</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793916</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348519</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6810,7 +6810,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.615714228346</v>
       </c>
       <c r="V33" t="n">
         <v>1781.463605996603</v>
@@ -6819,7 +6819,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.374749062869</v>
       </c>
       <c r="Y33" t="n">
         <v>1111.614450297915</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>862.5842182271858</v>
+        <v>778.7344347539909</v>
       </c>
       <c r="C34" t="n">
-        <v>709.3765537790352</v>
+        <v>625.5267703058432</v>
       </c>
       <c r="D34" t="n">
-        <v>574.9884328464559</v>
+        <v>491.1386493732668</v>
       </c>
       <c r="E34" t="n">
-        <v>442.8038577438191</v>
+        <v>371.2675565313754</v>
       </c>
       <c r="F34" t="n">
-        <v>311.6424287256651</v>
+        <v>371.2675565313754</v>
       </c>
       <c r="G34" t="n">
-        <v>160.1748479203019</v>
+        <v>219.7999757260146</v>
       </c>
       <c r="H34" t="n">
-        <v>160.1748479203019</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="J34" t="n">
-        <v>189.4682024403049</v>
+        <v>189.4682024403071</v>
       </c>
       <c r="K34" t="n">
-        <v>466.5729859278528</v>
+        <v>466.5729859278566</v>
       </c>
       <c r="L34" t="n">
-        <v>872.3871010658022</v>
+        <v>872.3871010658072</v>
       </c>
       <c r="M34" t="n">
-        <v>1309.812324758846</v>
+        <v>1309.812324758852</v>
       </c>
       <c r="N34" t="n">
-        <v>1742.637717380864</v>
+        <v>1742.637717380871</v>
       </c>
       <c r="O34" t="n">
-        <v>2127.582519051858</v>
+        <v>2127.582519051867</v>
       </c>
       <c r="P34" t="n">
-        <v>2435.673495587426</v>
+        <v>2435.673495587436</v>
       </c>
       <c r="Q34" t="n">
-        <v>2570.287251276335</v>
+        <v>2570.287251276347</v>
       </c>
       <c r="R34" t="n">
-        <v>2518.970066008494</v>
+        <v>2518.970066008508</v>
       </c>
       <c r="S34" t="n">
-        <v>2351.843750143154</v>
+        <v>2351.843750143171</v>
       </c>
       <c r="T34" t="n">
-        <v>2147.970803645851</v>
+        <v>2147.970803645871</v>
       </c>
       <c r="U34" t="n">
-        <v>1958.473878943039</v>
+        <v>1874.624095469829</v>
       </c>
       <c r="V34" t="n">
-        <v>1719.517909216908</v>
+        <v>1635.668125743701</v>
       </c>
       <c r="W34" t="n">
-        <v>1445.829257659704</v>
+        <v>1361.9794741865</v>
       </c>
       <c r="X34" t="n">
-        <v>1233.568225241443</v>
+        <v>1149.718441768242</v>
       </c>
       <c r="Y34" t="n">
-        <v>1028.504164577669</v>
+        <v>944.6543811044712</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,25 +7187,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
         <v>2001.151557821488</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
@@ -7336,7 +7336,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,22 +7357,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
         <v>2001.151557821488</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,13 +7658,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,34 +7804,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.359690138258429e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.092281986027956e-11</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>311.419231443754</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>215.1895819463429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -22723,7 +22723,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,19 +22750,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>51.24558311758209</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>114.1584408891655</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>145.6085800303772</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.431399949379706e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>145.6085800303757</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856997</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012214</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9753202488365</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>139.4693302300431</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392195257</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856585</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>180.5336875992873</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>117.6820817884489</v>
+        <v>57.22910392195249</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856585</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856585</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>57.22910392195308</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194079</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.22910392195294</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>12.19034743813496</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>129.8498147279695</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>124.7234795512651</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>65.69460302360415</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>83.01128563850092</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1223528.722800268</v>
+        <v>1223528.722800269</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1236893.026514852</v>
+        <v>1236893.026514855</v>
       </c>
     </row>
     <row r="13">
@@ -26326,22 +26326,22 @@
         <v>201786.6499225016</v>
       </c>
       <c r="G2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225014</v>
       </c>
       <c r="H2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225013</v>
       </c>
       <c r="I2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="J2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225013</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225013</v>
       </c>
       <c r="L2" t="n">
-        <v>204014.0338749321</v>
+        <v>204014.0338749326</v>
       </c>
       <c r="M2" t="n">
         <v>205260.4424660709</v>
@@ -26353,7 +26353,7 @@
         <v>205260.4424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26375,10 +26375,10 @@
         <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-3.106395406915302e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12456.98663596703</v>
+        <v>12456.98663596936</v>
       </c>
       <c r="M3" t="n">
-        <v>92025.75929317652</v>
+        <v>92025.75929317814</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13430.06689216535</v>
+        <v>13430.06689216532</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.842883194</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184275</v>
@@ -26433,31 +26433,31 @@
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184273</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184404</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184273</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>18730.5198665057</v>
+        <v>18730.51986650669</v>
       </c>
       <c r="M4" t="n">
+        <v>21597.66737493624</v>
+      </c>
+      <c r="N4" t="n">
+        <v>21597.66737493622</v>
+      </c>
+      <c r="O4" t="n">
         <v>21597.66737493621</v>
       </c>
-      <c r="N4" t="n">
-        <v>21597.66737493618</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21597.66737493618</v>
-      </c>
       <c r="P4" t="n">
-        <v>21597.66737493621</v>
+        <v>21597.6673749362</v>
       </c>
     </row>
     <row r="5">
@@ -26482,22 +26482,22 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="L5" t="n">
-        <v>102431.587835781</v>
+        <v>102431.5878357811</v>
       </c>
       <c r="M5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1279610.203695691</v>
+        <v>-1279957.822625497</v>
       </c>
       <c r="C6" t="n">
-        <v>4532.659021483181</v>
+        <v>4532.659021483385</v>
       </c>
       <c r="D6" t="n">
         <v>4532.659021483487</v>
       </c>
       <c r="E6" t="n">
-        <v>-238355.1498206037</v>
+        <v>-238389.8877460393</v>
       </c>
       <c r="F6" t="n">
-        <v>87057.31198675174</v>
+        <v>87022.57406131583</v>
       </c>
       <c r="G6" t="n">
-        <v>87057.31198675161</v>
+        <v>87022.57406132067</v>
       </c>
       <c r="H6" t="n">
-        <v>87057.31198675168</v>
+        <v>87022.57406131587</v>
       </c>
       <c r="I6" t="n">
-        <v>87057.31198675164</v>
+        <v>87022.57406131474</v>
       </c>
       <c r="J6" t="n">
-        <v>-130473.8904105258</v>
+        <v>-130508.6283359617</v>
       </c>
       <c r="K6" t="n">
-        <v>87057.31198675162</v>
+        <v>87022.57406131587</v>
       </c>
       <c r="L6" t="n">
-        <v>70394.93953667834</v>
+        <v>70382.47545076399</v>
       </c>
       <c r="M6" t="n">
-        <v>-11527.10005595726</v>
+        <v>-11527.10005595884</v>
       </c>
       <c r="N6" t="n">
-        <v>80498.65923721927</v>
+        <v>80498.65923721931</v>
       </c>
       <c r="O6" t="n">
-        <v>80498.65923721927</v>
+        <v>80498.65923721931</v>
       </c>
       <c r="P6" t="n">
-        <v>80498.65923721925</v>
+        <v>80498.65923721931</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26750,22 +26750,22 @@
         <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341668</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341668</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341668</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341668</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341668</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341668</v>
       </c>
       <c r="M3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,16 +26802,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26823,10 +26823,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="M2" t="n">
-        <v>8.713414197080922</v>
+        <v>8.713414197078018</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26969,10 +26969,10 @@
         <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-4.542953876516487e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-12</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>77.32213796411908</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>362.4386851003795</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>122.3173361043591</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>142.3564781982826</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>317.009279471626</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>12.33598323394239</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>63.6118175277193</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>147.0357987705849</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.236930640719947e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-4.123042648037275e-12</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="C34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="D34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="E34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="F34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="G34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="H34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="I34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="J34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="K34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="L34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="M34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="N34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="O34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="P34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="R34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="S34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="T34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="U34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="V34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="W34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="X34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.57123329495879</v>
+        <v>15.57123329496171</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31838,22 +31838,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634841</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135317</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067223</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663263</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817546</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162525</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175635</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159384</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.586862645999</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236474</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669198</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292895</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651518</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078727</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659437</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521088</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007745</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420743</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422566</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473046</v>
       </c>
       <c r="M18" t="n">
-        <v>416.4300581532619</v>
+        <v>745.546647686209</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071753</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558138</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742415</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937729</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275946</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189893</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121561</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869244</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796254</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355166</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588138</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392029</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106772</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920043</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417302</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515919</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670473</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532748</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099318</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467216</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634841</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135317</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067223</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663263</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817546</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162525</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175635</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159384</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.586862645999</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236474</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669198</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222044015</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292895</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651518</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078727</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659437</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521088</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007745</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420743</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422566</v>
       </c>
       <c r="L21" t="n">
-        <v>428.6149474293395</v>
+        <v>638.8832749473046</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.546647686209</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071753</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558138</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742415</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937729</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275946</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189893</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121561</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869244</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796254</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355166</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588138</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392029</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106772</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920043</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417302</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515919</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670473</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532748</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099318</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467216</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634841</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135317</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067223</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663263</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817546</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162525</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175635</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159384</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.586862645999</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236474</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669198</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292895</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651518</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078727</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659437</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521088</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007745</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420743</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422566</v>
       </c>
       <c r="L24" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473046</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.546647686209</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071753</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558138</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742415</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937729</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275946</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189893</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121561</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869244</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796254</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355166</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588138</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392029</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106772</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920043</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417302</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515919</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670473</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532748</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099318</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467216</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634841</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135317</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067223</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663263</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817546</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162525</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175635</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159384</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.586862645999</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236474</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669198</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222044015</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292895</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651518</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078727</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659437</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521088</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007745</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420743</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422566</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473046</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.546647686209</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071753</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558138</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742415</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937729</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275946</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189893</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121561</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869244</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796254</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355166</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588138</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392029</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106772</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920043</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417302</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515919</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670473</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532748</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099318</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467216</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634841</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135317</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067223</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663263</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817546</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162525</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175635</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159384</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.586862645999</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236474</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669198</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222044015</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292895</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651518</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078727</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659437</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521088</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007745</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420743</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422566</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473046</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.546647686209</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071753</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558138</v>
       </c>
       <c r="P30" t="n">
-        <v>543.0832917018706</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742415</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937729</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275946</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189893</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121561</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869244</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796254</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355166</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588138</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392029</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106772</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920043</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417302</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515919</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670473</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532748</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099318</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467216</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.49939899634841</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135317</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067522</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663263</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817546</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162525</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175635</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159384</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.586862645999</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236474</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669198</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292895</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651518</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078727</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659437</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521088</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>101.3076196007745</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420743</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422566</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473046</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982891</v>
+        <v>745.546647686209</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071753</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558138</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742415</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937729</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275946</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189893</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121561</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869244</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796254</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355166</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588138</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392029</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106772</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920043</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417302</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515919</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670473</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532748</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099318</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467216</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,19 +33737,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,19 +33974,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,19 +34211,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>140.6875824748315</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316375</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.70871103964</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036774</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462653</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902908</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193475</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243122</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683779</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924703</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774489</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754076</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678976</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674304</v>
       </c>
       <c r="M18" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641906</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238421</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113693</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295265</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096338</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191299</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010435</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899058</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060439</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066237</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998975</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316375</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.70871103964</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036774</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462653</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902908</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193475</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243122</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683779</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924703</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902693</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774489</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754076</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678976</v>
       </c>
       <c r="L21" t="n">
-        <v>290.0605676494653</v>
+        <v>500.3288951674304</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641906</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238421</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113693</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295265</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096338</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191299</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010435</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899058</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060439</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066237</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998975</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316375</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.708711039671</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036774</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462653</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902908</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193475</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243122</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683779</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924703</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774489</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754076</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678976</v>
       </c>
       <c r="L24" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674304</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641906</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238421</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113693</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295265</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096338</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191299</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010435</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899058</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060439</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066237</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998975</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316375</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.70871103964</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036774</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462653</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902908</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193475</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243122</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683779</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924703</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902693</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774489</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754076</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678976</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674304</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641906</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238421</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113693</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295265</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096338</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191299</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010435</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899058</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060439</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066237</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998975</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316375</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.70871103964</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036774</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462653</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902908</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193475</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243122</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683779</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924703</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902693</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774489</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754076</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678976</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674304</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641906</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238421</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113693</v>
       </c>
       <c r="P30" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295265</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096338</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191299</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010435</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899058</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060439</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066237</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998975</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236346331</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.70871103964</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036774</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462653</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902908</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193475</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243122</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683779</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924703</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774489</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754076</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678976</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674304</v>
       </c>
       <c r="M33" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641906</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238421</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113693</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.6177165579122</v>
+        <v>96.61771655791435</v>
       </c>
       <c r="K34" t="n">
-        <v>279.9038217045938</v>
+        <v>279.9038217045955</v>
       </c>
       <c r="L34" t="n">
-        <v>409.9132476140903</v>
+        <v>409.9132476140916</v>
       </c>
       <c r="M34" t="n">
-        <v>441.843660296004</v>
+        <v>441.8436602960052</v>
       </c>
       <c r="N34" t="n">
-        <v>437.1973662848662</v>
+        <v>437.1973662848675</v>
       </c>
       <c r="O34" t="n">
-        <v>388.8331330010043</v>
+        <v>388.8331330010056</v>
       </c>
       <c r="P34" t="n">
-        <v>311.2030066015838</v>
+        <v>311.2030066015854</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.9734905948572</v>
+        <v>135.9734905948592</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
